--- a/data-raw/abs/6401.0/640102.xlsx
+++ b/data-raw/abs/6401.0/640102.xlsx
@@ -12,116 +12,116 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2325846C">Data1!$M$1:$M$10,Data1!$M$11:$M$304</definedName>
-    <definedName name="A2325846C_Data">Data1!$M$11:$M$304</definedName>
-    <definedName name="A2325846C_Latest">Data1!$M$304</definedName>
-    <definedName name="A2325847F">Data1!$Y$1:$Y$10,Data1!$Y$15:$Y$304</definedName>
-    <definedName name="A2325847F_Data">Data1!$Y$15:$Y$304</definedName>
-    <definedName name="A2325847F_Latest">Data1!$Y$304</definedName>
-    <definedName name="A2325850V">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$304</definedName>
-    <definedName name="A2325850V_Data">Data1!$AK$12:$AK$304</definedName>
-    <definedName name="A2325850V_Latest">Data1!$AK$304</definedName>
-    <definedName name="A2325891R">Data1!$B$1:$B$10,Data1!$B$107:$B$304</definedName>
-    <definedName name="A2325891R_Data">Data1!$B$107:$B$304</definedName>
-    <definedName name="A2325891R_Latest">Data1!$B$304</definedName>
-    <definedName name="A2325892T">Data1!$N$1:$N$10,Data1!$N$111:$N$304</definedName>
-    <definedName name="A2325892T_Data">Data1!$N$111:$N$304</definedName>
-    <definedName name="A2325892T_Latest">Data1!$N$304</definedName>
-    <definedName name="A2325895X">Data1!$Z$1:$Z$10,Data1!$Z$108:$Z$304</definedName>
-    <definedName name="A2325895X_Data">Data1!$Z$108:$Z$304</definedName>
-    <definedName name="A2325895X_Latest">Data1!$Z$304</definedName>
-    <definedName name="A2325936J">Data1!$D$1:$D$10,Data1!$D$107:$D$304</definedName>
-    <definedName name="A2325936J_Data">Data1!$D$107:$D$304</definedName>
-    <definedName name="A2325936J_Latest">Data1!$D$304</definedName>
-    <definedName name="A2325937K">Data1!$P$1:$P$10,Data1!$P$111:$P$304</definedName>
-    <definedName name="A2325937K_Data">Data1!$P$111:$P$304</definedName>
-    <definedName name="A2325937K_Latest">Data1!$P$304</definedName>
-    <definedName name="A2325940X">Data1!$AB$1:$AB$10,Data1!$AB$108:$AB$304</definedName>
-    <definedName name="A2325940X_Data">Data1!$AB$108:$AB$304</definedName>
-    <definedName name="A2325940X_Latest">Data1!$AB$304</definedName>
-    <definedName name="A2325981V">Data1!$E$1:$E$10,Data1!$E$107:$E$304</definedName>
-    <definedName name="A2325981V_Data">Data1!$E$107:$E$304</definedName>
-    <definedName name="A2325981V_Latest">Data1!$E$304</definedName>
-    <definedName name="A2325982W">Data1!$Q$1:$Q$10,Data1!$Q$111:$Q$304</definedName>
-    <definedName name="A2325982W_Data">Data1!$Q$111:$Q$304</definedName>
-    <definedName name="A2325982W_Latest">Data1!$Q$304</definedName>
-    <definedName name="A2325985C">Data1!$AC$1:$AC$10,Data1!$AC$108:$AC$304</definedName>
-    <definedName name="A2325985C_Data">Data1!$AC$108:$AC$304</definedName>
-    <definedName name="A2325985C_Latest">Data1!$AC$304</definedName>
-    <definedName name="A2326026R">Data1!$F$1:$F$10,Data1!$F$107:$F$304</definedName>
-    <definedName name="A2326026R_Data">Data1!$F$107:$F$304</definedName>
-    <definedName name="A2326026R_Latest">Data1!$F$304</definedName>
-    <definedName name="A2326027T">Data1!$R$1:$R$10,Data1!$R$111:$R$304</definedName>
-    <definedName name="A2326027T_Data">Data1!$R$111:$R$304</definedName>
-    <definedName name="A2326027T_Latest">Data1!$R$304</definedName>
-    <definedName name="A2326030F">Data1!$AD$1:$AD$10,Data1!$AD$108:$AD$304</definedName>
-    <definedName name="A2326030F_Data">Data1!$AD$108:$AD$304</definedName>
-    <definedName name="A2326030F_Latest">Data1!$AD$304</definedName>
-    <definedName name="A2326071A">Data1!$H$1:$H$10,Data1!$H$107:$H$304</definedName>
-    <definedName name="A2326071A_Data">Data1!$H$107:$H$304</definedName>
-    <definedName name="A2326071A_Latest">Data1!$H$304</definedName>
-    <definedName name="A2326072C">Data1!$T$1:$T$10,Data1!$T$111:$T$304</definedName>
-    <definedName name="A2326072C_Data">Data1!$T$111:$T$304</definedName>
-    <definedName name="A2326072C_Latest">Data1!$T$304</definedName>
-    <definedName name="A2326075K">Data1!$AF$1:$AF$10,Data1!$AF$108:$AF$304</definedName>
-    <definedName name="A2326075K_Data">Data1!$AF$108:$AF$304</definedName>
-    <definedName name="A2326075K_Latest">Data1!$AF$304</definedName>
-    <definedName name="A2326116V">Data1!$C$1:$C$10,Data1!$C$107:$C$304</definedName>
-    <definedName name="A2326116V_Data">Data1!$C$107:$C$304</definedName>
-    <definedName name="A2326116V_Latest">Data1!$C$304</definedName>
-    <definedName name="A2326117W">Data1!$O$1:$O$10,Data1!$O$111:$O$304</definedName>
-    <definedName name="A2326117W_Data">Data1!$O$111:$O$304</definedName>
-    <definedName name="A2326117W_Latest">Data1!$O$304</definedName>
-    <definedName name="A2326120K">Data1!$AA$1:$AA$10,Data1!$AA$108:$AA$304</definedName>
-    <definedName name="A2326120K_Data">Data1!$AA$108:$AA$304</definedName>
-    <definedName name="A2326120K_Latest">Data1!$AA$304</definedName>
-    <definedName name="A2331111C">Data1!$G$1:$G$10,Data1!$G$175:$G$304</definedName>
-    <definedName name="A2331111C_Data">Data1!$G$175:$G$304</definedName>
-    <definedName name="A2331111C_Latest">Data1!$G$304</definedName>
-    <definedName name="A2331112F">Data1!$S$1:$S$10,Data1!$S$179:$S$304</definedName>
-    <definedName name="A2331112F_Data">Data1!$S$179:$S$304</definedName>
-    <definedName name="A2331112F_Latest">Data1!$S$304</definedName>
-    <definedName name="A2331115L">Data1!$AE$1:$AE$10,Data1!$AE$176:$AE$304</definedName>
-    <definedName name="A2331115L_Data">Data1!$AE$176:$AE$304</definedName>
-    <definedName name="A2331115L_Latest">Data1!$AE$304</definedName>
-    <definedName name="A2331201J">Data1!$I$1:$I$10,Data1!$I$107:$I$304</definedName>
-    <definedName name="A2331201J_Data">Data1!$I$107:$I$304</definedName>
-    <definedName name="A2331201J_Latest">Data1!$I$304</definedName>
-    <definedName name="A2331202K">Data1!$U$1:$U$10,Data1!$U$111:$U$304</definedName>
-    <definedName name="A2331202K_Data">Data1!$U$111:$U$304</definedName>
-    <definedName name="A2331202K_Latest">Data1!$U$304</definedName>
-    <definedName name="A2331205T">Data1!$AG$1:$AG$10,Data1!$AG$108:$AG$304</definedName>
-    <definedName name="A2331205T_Data">Data1!$AG$108:$AG$304</definedName>
-    <definedName name="A2331205T_Latest">Data1!$AG$304</definedName>
-    <definedName name="A2331246L">Data1!$J$1:$J$10,Data1!$J$175:$J$304</definedName>
-    <definedName name="A2331246L_Data">Data1!$J$175:$J$304</definedName>
-    <definedName name="A2331246L_Latest">Data1!$J$304</definedName>
-    <definedName name="A2331247R">Data1!$V$1:$V$10,Data1!$V$179:$V$304</definedName>
-    <definedName name="A2331247R_Data">Data1!$V$179:$V$304</definedName>
-    <definedName name="A2331247R_Latest">Data1!$V$304</definedName>
-    <definedName name="A2331250C">Data1!$AH$1:$AH$10,Data1!$AH$176:$AH$304</definedName>
-    <definedName name="A2331250C_Data">Data1!$AH$176:$AH$304</definedName>
-    <definedName name="A2331250C_Latest">Data1!$AH$304</definedName>
-    <definedName name="A2331426W">Data1!$K$1:$K$10,Data1!$K$145:$K$304</definedName>
-    <definedName name="A2331426W_Data">Data1!$K$145:$K$304</definedName>
-    <definedName name="A2331426W_Latest">Data1!$K$304</definedName>
-    <definedName name="A2331427X">Data1!$W$1:$W$10,Data1!$W$149:$W$304</definedName>
-    <definedName name="A2331427X_Data">Data1!$W$149:$W$304</definedName>
-    <definedName name="A2331427X_Latest">Data1!$W$304</definedName>
-    <definedName name="A2331430L">Data1!$AI$1:$AI$10,Data1!$AI$146:$AI$304</definedName>
-    <definedName name="A2331430L_Data">Data1!$AI$146:$AI$304</definedName>
-    <definedName name="A2331430L_Latest">Data1!$AI$304</definedName>
-    <definedName name="A2332596F">Data1!$L$1:$L$10,Data1!$L$238:$L$304</definedName>
-    <definedName name="A2332596F_Data">Data1!$L$238:$L$304</definedName>
-    <definedName name="A2332596F_Latest">Data1!$L$304</definedName>
-    <definedName name="A2332597J">Data1!$X$1:$X$10,Data1!$X$242:$X$304</definedName>
-    <definedName name="A2332597J_Data">Data1!$X$242:$X$304</definedName>
-    <definedName name="A2332597J_Latest">Data1!$X$304</definedName>
-    <definedName name="A2332600K">Data1!$AJ$1:$AJ$10,Data1!$AJ$239:$AJ$304</definedName>
-    <definedName name="A2332600K_Data">Data1!$AJ$239:$AJ$304</definedName>
-    <definedName name="A2332600K_Latest">Data1!$AJ$304</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$304</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$304</definedName>
+    <definedName name="A2325846C">Data1!$M$1:$M$10,Data1!$M$11:$M$305</definedName>
+    <definedName name="A2325846C_Data">Data1!$M$11:$M$305</definedName>
+    <definedName name="A2325846C_Latest">Data1!$M$305</definedName>
+    <definedName name="A2325847F">Data1!$Y$1:$Y$10,Data1!$Y$15:$Y$305</definedName>
+    <definedName name="A2325847F_Data">Data1!$Y$15:$Y$305</definedName>
+    <definedName name="A2325847F_Latest">Data1!$Y$305</definedName>
+    <definedName name="A2325850V">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$305</definedName>
+    <definedName name="A2325850V_Data">Data1!$AK$12:$AK$305</definedName>
+    <definedName name="A2325850V_Latest">Data1!$AK$305</definedName>
+    <definedName name="A2325891R">Data1!$B$1:$B$10,Data1!$B$107:$B$305</definedName>
+    <definedName name="A2325891R_Data">Data1!$B$107:$B$305</definedName>
+    <definedName name="A2325891R_Latest">Data1!$B$305</definedName>
+    <definedName name="A2325892T">Data1!$N$1:$N$10,Data1!$N$111:$N$305</definedName>
+    <definedName name="A2325892T_Data">Data1!$N$111:$N$305</definedName>
+    <definedName name="A2325892T_Latest">Data1!$N$305</definedName>
+    <definedName name="A2325895X">Data1!$Z$1:$Z$10,Data1!$Z$108:$Z$305</definedName>
+    <definedName name="A2325895X_Data">Data1!$Z$108:$Z$305</definedName>
+    <definedName name="A2325895X_Latest">Data1!$Z$305</definedName>
+    <definedName name="A2325936J">Data1!$D$1:$D$10,Data1!$D$107:$D$305</definedName>
+    <definedName name="A2325936J_Data">Data1!$D$107:$D$305</definedName>
+    <definedName name="A2325936J_Latest">Data1!$D$305</definedName>
+    <definedName name="A2325937K">Data1!$P$1:$P$10,Data1!$P$111:$P$305</definedName>
+    <definedName name="A2325937K_Data">Data1!$P$111:$P$305</definedName>
+    <definedName name="A2325937K_Latest">Data1!$P$305</definedName>
+    <definedName name="A2325940X">Data1!$AB$1:$AB$10,Data1!$AB$108:$AB$305</definedName>
+    <definedName name="A2325940X_Data">Data1!$AB$108:$AB$305</definedName>
+    <definedName name="A2325940X_Latest">Data1!$AB$305</definedName>
+    <definedName name="A2325981V">Data1!$E$1:$E$10,Data1!$E$107:$E$305</definedName>
+    <definedName name="A2325981V_Data">Data1!$E$107:$E$305</definedName>
+    <definedName name="A2325981V_Latest">Data1!$E$305</definedName>
+    <definedName name="A2325982W">Data1!$Q$1:$Q$10,Data1!$Q$111:$Q$305</definedName>
+    <definedName name="A2325982W_Data">Data1!$Q$111:$Q$305</definedName>
+    <definedName name="A2325982W_Latest">Data1!$Q$305</definedName>
+    <definedName name="A2325985C">Data1!$AC$1:$AC$10,Data1!$AC$108:$AC$305</definedName>
+    <definedName name="A2325985C_Data">Data1!$AC$108:$AC$305</definedName>
+    <definedName name="A2325985C_Latest">Data1!$AC$305</definedName>
+    <definedName name="A2326026R">Data1!$F$1:$F$10,Data1!$F$107:$F$305</definedName>
+    <definedName name="A2326026R_Data">Data1!$F$107:$F$305</definedName>
+    <definedName name="A2326026R_Latest">Data1!$F$305</definedName>
+    <definedName name="A2326027T">Data1!$R$1:$R$10,Data1!$R$111:$R$305</definedName>
+    <definedName name="A2326027T_Data">Data1!$R$111:$R$305</definedName>
+    <definedName name="A2326027T_Latest">Data1!$R$305</definedName>
+    <definedName name="A2326030F">Data1!$AD$1:$AD$10,Data1!$AD$108:$AD$305</definedName>
+    <definedName name="A2326030F_Data">Data1!$AD$108:$AD$305</definedName>
+    <definedName name="A2326030F_Latest">Data1!$AD$305</definedName>
+    <definedName name="A2326071A">Data1!$H$1:$H$10,Data1!$H$107:$H$305</definedName>
+    <definedName name="A2326071A_Data">Data1!$H$107:$H$305</definedName>
+    <definedName name="A2326071A_Latest">Data1!$H$305</definedName>
+    <definedName name="A2326072C">Data1!$T$1:$T$10,Data1!$T$111:$T$305</definedName>
+    <definedName name="A2326072C_Data">Data1!$T$111:$T$305</definedName>
+    <definedName name="A2326072C_Latest">Data1!$T$305</definedName>
+    <definedName name="A2326075K">Data1!$AF$1:$AF$10,Data1!$AF$108:$AF$305</definedName>
+    <definedName name="A2326075K_Data">Data1!$AF$108:$AF$305</definedName>
+    <definedName name="A2326075K_Latest">Data1!$AF$305</definedName>
+    <definedName name="A2326116V">Data1!$C$1:$C$10,Data1!$C$107:$C$305</definedName>
+    <definedName name="A2326116V_Data">Data1!$C$107:$C$305</definedName>
+    <definedName name="A2326116V_Latest">Data1!$C$305</definedName>
+    <definedName name="A2326117W">Data1!$O$1:$O$10,Data1!$O$111:$O$305</definedName>
+    <definedName name="A2326117W_Data">Data1!$O$111:$O$305</definedName>
+    <definedName name="A2326117W_Latest">Data1!$O$305</definedName>
+    <definedName name="A2326120K">Data1!$AA$1:$AA$10,Data1!$AA$108:$AA$305</definedName>
+    <definedName name="A2326120K_Data">Data1!$AA$108:$AA$305</definedName>
+    <definedName name="A2326120K_Latest">Data1!$AA$305</definedName>
+    <definedName name="A2331111C">Data1!$G$1:$G$10,Data1!$G$175:$G$305</definedName>
+    <definedName name="A2331111C_Data">Data1!$G$175:$G$305</definedName>
+    <definedName name="A2331111C_Latest">Data1!$G$305</definedName>
+    <definedName name="A2331112F">Data1!$S$1:$S$10,Data1!$S$179:$S$305</definedName>
+    <definedName name="A2331112F_Data">Data1!$S$179:$S$305</definedName>
+    <definedName name="A2331112F_Latest">Data1!$S$305</definedName>
+    <definedName name="A2331115L">Data1!$AE$1:$AE$10,Data1!$AE$176:$AE$305</definedName>
+    <definedName name="A2331115L_Data">Data1!$AE$176:$AE$305</definedName>
+    <definedName name="A2331115L_Latest">Data1!$AE$305</definedName>
+    <definedName name="A2331201J">Data1!$I$1:$I$10,Data1!$I$107:$I$305</definedName>
+    <definedName name="A2331201J_Data">Data1!$I$107:$I$305</definedName>
+    <definedName name="A2331201J_Latest">Data1!$I$305</definedName>
+    <definedName name="A2331202K">Data1!$U$1:$U$10,Data1!$U$111:$U$305</definedName>
+    <definedName name="A2331202K_Data">Data1!$U$111:$U$305</definedName>
+    <definedName name="A2331202K_Latest">Data1!$U$305</definedName>
+    <definedName name="A2331205T">Data1!$AG$1:$AG$10,Data1!$AG$108:$AG$305</definedName>
+    <definedName name="A2331205T_Data">Data1!$AG$108:$AG$305</definedName>
+    <definedName name="A2331205T_Latest">Data1!$AG$305</definedName>
+    <definedName name="A2331246L">Data1!$J$1:$J$10,Data1!$J$175:$J$305</definedName>
+    <definedName name="A2331246L_Data">Data1!$J$175:$J$305</definedName>
+    <definedName name="A2331246L_Latest">Data1!$J$305</definedName>
+    <definedName name="A2331247R">Data1!$V$1:$V$10,Data1!$V$179:$V$305</definedName>
+    <definedName name="A2331247R_Data">Data1!$V$179:$V$305</definedName>
+    <definedName name="A2331247R_Latest">Data1!$V$305</definedName>
+    <definedName name="A2331250C">Data1!$AH$1:$AH$10,Data1!$AH$176:$AH$305</definedName>
+    <definedName name="A2331250C_Data">Data1!$AH$176:$AH$305</definedName>
+    <definedName name="A2331250C_Latest">Data1!$AH$305</definedName>
+    <definedName name="A2331426W">Data1!$K$1:$K$10,Data1!$K$145:$K$305</definedName>
+    <definedName name="A2331426W_Data">Data1!$K$145:$K$305</definedName>
+    <definedName name="A2331426W_Latest">Data1!$K$305</definedName>
+    <definedName name="A2331427X">Data1!$W$1:$W$10,Data1!$W$149:$W$305</definedName>
+    <definedName name="A2331427X_Data">Data1!$W$149:$W$305</definedName>
+    <definedName name="A2331427X_Latest">Data1!$W$305</definedName>
+    <definedName name="A2331430L">Data1!$AI$1:$AI$10,Data1!$AI$146:$AI$305</definedName>
+    <definedName name="A2331430L_Data">Data1!$AI$146:$AI$305</definedName>
+    <definedName name="A2331430L_Latest">Data1!$AI$305</definedName>
+    <definedName name="A2332596F">Data1!$L$1:$L$10,Data1!$L$238:$L$305</definedName>
+    <definedName name="A2332596F_Data">Data1!$L$238:$L$305</definedName>
+    <definedName name="A2332596F_Latest">Data1!$L$305</definedName>
+    <definedName name="A2332597J">Data1!$X$1:$X$10,Data1!$X$242:$X$305</definedName>
+    <definedName name="A2332597J_Data">Data1!$X$242:$X$305</definedName>
+    <definedName name="A2332597J_Latest">Data1!$X$305</definedName>
+    <definedName name="A2332600K">Data1!$AJ$1:$AJ$10,Data1!$AJ$239:$AJ$305</definedName>
+    <definedName name="A2332600K_Data">Data1!$AJ$239:$AJ$305</definedName>
+    <definedName name="A2332600K_Latest">Data1!$AJ$305</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$305</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$305</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1484,10 +1484,10 @@
         <v>26543</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>45</v>
@@ -1516,10 +1516,10 @@
         <v>26543</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>45</v>
@@ -1548,10 +1548,10 @@
         <v>26543</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>45</v>
@@ -1580,10 +1580,10 @@
         <v>26543</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>45</v>
@@ -1612,10 +1612,10 @@
         <v>26543</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>45</v>
@@ -1644,10 +1644,10 @@
         <v>32752</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>45</v>
@@ -1676,10 +1676,10 @@
         <v>26543</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>45</v>
@@ -1708,10 +1708,10 @@
         <v>26543</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>45</v>
@@ -1740,10 +1740,10 @@
         <v>32752</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>45</v>
@@ -1772,10 +1772,10 @@
         <v>30011</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>45</v>
@@ -1804,10 +1804,10 @@
         <v>38504</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>45</v>
@@ -1836,10 +1836,10 @@
         <v>17777</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>45</v>
@@ -1868,10 +1868,10 @@
         <v>26908</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>61</v>
@@ -1900,10 +1900,10 @@
         <v>26908</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>61</v>
@@ -1932,10 +1932,10 @@
         <v>26908</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>61</v>
@@ -1964,10 +1964,10 @@
         <v>26908</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>61</v>
@@ -1996,10 +1996,10 @@
         <v>26908</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>61</v>
@@ -2028,10 +2028,10 @@
         <v>33117</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>61</v>
@@ -2060,10 +2060,10 @@
         <v>26908</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>61</v>
@@ -2092,10 +2092,10 @@
         <v>26908</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>61</v>
@@ -2124,10 +2124,10 @@
         <v>33117</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>61</v>
@@ -2156,10 +2156,10 @@
         <v>30376</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>61</v>
@@ -2188,10 +2188,10 @@
         <v>38869</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>61</v>
@@ -2220,10 +2220,10 @@
         <v>18142</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>61</v>
@@ -2252,10 +2252,10 @@
         <v>26634</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>61</v>
@@ -2284,10 +2284,10 @@
         <v>26634</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>61</v>
@@ -2316,10 +2316,10 @@
         <v>26634</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>61</v>
@@ -2348,10 +2348,10 @@
         <v>26634</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>61</v>
@@ -2380,10 +2380,10 @@
         <v>26634</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>61</v>
@@ -2412,10 +2412,10 @@
         <v>32843</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>61</v>
@@ -2444,10 +2444,10 @@
         <v>26634</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>61</v>
@@ -2476,10 +2476,10 @@
         <v>26634</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>61</v>
@@ -2508,10 +2508,10 @@
         <v>32843</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>61</v>
@@ -2540,10 +2540,10 @@
         <v>30103</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>61</v>
@@ -2572,10 +2572,10 @@
         <v>38596</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>61</v>
@@ -2604,10 +2604,10 @@
         <v>17868</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>61</v>
@@ -2678,7 +2678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK304"/>
+  <dimension ref="A1:AK305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -3485,112 +3485,112 @@
         <v>42</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -3598,112 +3598,112 @@
         <v>43</v>
       </c>
       <c r="B9" s="1">
+        <v>199</v>
+      </c>
+      <c r="C9" s="1">
+        <v>199</v>
+      </c>
+      <c r="D9" s="1">
+        <v>199</v>
+      </c>
+      <c r="E9" s="1">
+        <v>199</v>
+      </c>
+      <c r="F9" s="1">
+        <v>199</v>
+      </c>
+      <c r="G9" s="1">
+        <v>131</v>
+      </c>
+      <c r="H9" s="1">
+        <v>199</v>
+      </c>
+      <c r="I9" s="1">
+        <v>199</v>
+      </c>
+      <c r="J9" s="1">
+        <v>131</v>
+      </c>
+      <c r="K9" s="1">
+        <v>161</v>
+      </c>
+      <c r="L9" s="1">
+        <v>68</v>
+      </c>
+      <c r="M9" s="1">
+        <v>295</v>
+      </c>
+      <c r="N9" s="1">
+        <v>195</v>
+      </c>
+      <c r="O9" s="1">
+        <v>195</v>
+      </c>
+      <c r="P9" s="1">
+        <v>195</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>195</v>
+      </c>
+      <c r="R9" s="1">
+        <v>195</v>
+      </c>
+      <c r="S9" s="1">
+        <v>127</v>
+      </c>
+      <c r="T9" s="1">
+        <v>195</v>
+      </c>
+      <c r="U9" s="1">
+        <v>195</v>
+      </c>
+      <c r="V9" s="1">
+        <v>127</v>
+      </c>
+      <c r="W9" s="1">
+        <v>157</v>
+      </c>
+      <c r="X9" s="1">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>291</v>
+      </c>
+      <c r="Z9" s="1">
         <v>198</v>
       </c>
-      <c r="C9" s="1">
+      <c r="AA9" s="1">
         <v>198</v>
       </c>
-      <c r="D9" s="1">
+      <c r="AB9" s="1">
         <v>198</v>
       </c>
-      <c r="E9" s="1">
+      <c r="AC9" s="1">
         <v>198</v>
       </c>
-      <c r="F9" s="1">
+      <c r="AD9" s="1">
         <v>198</v>
       </c>
-      <c r="G9" s="1">
+      <c r="AE9" s="1">
         <v>130</v>
       </c>
-      <c r="H9" s="1">
+      <c r="AF9" s="1">
         <v>198</v>
       </c>
-      <c r="I9" s="1">
+      <c r="AG9" s="1">
         <v>198</v>
       </c>
-      <c r="J9" s="1">
+      <c r="AH9" s="1">
         <v>130</v>
       </c>
-      <c r="K9" s="1">
+      <c r="AI9" s="1">
         <v>160</v>
       </c>
-      <c r="L9" s="1">
+      <c r="AJ9" s="1">
         <v>67</v>
       </c>
-      <c r="M9" s="1">
+      <c r="AK9" s="1">
         <v>294</v>
-      </c>
-      <c r="N9" s="1">
-        <v>194</v>
-      </c>
-      <c r="O9" s="1">
-        <v>194</v>
-      </c>
-      <c r="P9" s="1">
-        <v>194</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>194</v>
-      </c>
-      <c r="R9" s="1">
-        <v>194</v>
-      </c>
-      <c r="S9" s="1">
-        <v>126</v>
-      </c>
-      <c r="T9" s="1">
-        <v>194</v>
-      </c>
-      <c r="U9" s="1">
-        <v>194</v>
-      </c>
-      <c r="V9" s="1">
-        <v>126</v>
-      </c>
-      <c r="W9" s="1">
-        <v>156</v>
-      </c>
-      <c r="X9" s="1">
-        <v>63</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>290</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>197</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>197</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>197</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>197</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>197</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>129</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>197</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>197</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>129</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>159</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>66</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -24610,6 +24610,119 @@
       </c>
       <c r="AK304" s="8">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A305" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B305" s="8">
+        <v>118.2</v>
+      </c>
+      <c r="C305" s="8">
+        <v>178.2</v>
+      </c>
+      <c r="D305" s="8">
+        <v>93.4</v>
+      </c>
+      <c r="E305" s="8">
+        <v>129</v>
+      </c>
+      <c r="F305" s="8">
+        <v>113.5</v>
+      </c>
+      <c r="G305" s="8">
+        <v>149.6</v>
+      </c>
+      <c r="H305" s="8">
+        <v>121.5</v>
+      </c>
+      <c r="I305" s="8">
+        <v>76.5</v>
+      </c>
+      <c r="J305" s="8">
+        <v>111.3</v>
+      </c>
+      <c r="K305" s="8">
+        <v>146</v>
+      </c>
+      <c r="L305" s="8">
+        <v>119.8</v>
+      </c>
+      <c r="M305" s="8">
+        <v>123.9</v>
+      </c>
+      <c r="N305" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="O305" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="P305" s="8">
+        <v>-1.5</v>
+      </c>
+      <c r="Q305" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="R305" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S305" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="T305" s="8">
+        <v>13.7</v>
+      </c>
+      <c r="U305" s="8">
+        <v>-0.8</v>
+      </c>
+      <c r="V305" s="8">
+        <v>3</v>
+      </c>
+      <c r="W305" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="X305" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="Y305" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z305" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="AA305" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB305" s="8">
+        <v>-0.6</v>
+      </c>
+      <c r="AC305" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="AD305" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE305" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF305" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="AG305" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AH305" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="AI305" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="AJ305" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AK305" s="8">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/6401.0/640102.xlsx
+++ b/data-raw/abs/6401.0/640102.xlsx
@@ -12,116 +12,116 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2325846C">Data1!$M$1:$M$10,Data1!$M$11:$M$305</definedName>
-    <definedName name="A2325846C_Data">Data1!$M$11:$M$305</definedName>
-    <definedName name="A2325846C_Latest">Data1!$M$305</definedName>
-    <definedName name="A2325847F">Data1!$Y$1:$Y$10,Data1!$Y$15:$Y$305</definedName>
-    <definedName name="A2325847F_Data">Data1!$Y$15:$Y$305</definedName>
-    <definedName name="A2325847F_Latest">Data1!$Y$305</definedName>
-    <definedName name="A2325850V">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$305</definedName>
-    <definedName name="A2325850V_Data">Data1!$AK$12:$AK$305</definedName>
-    <definedName name="A2325850V_Latest">Data1!$AK$305</definedName>
-    <definedName name="A2325891R">Data1!$B$1:$B$10,Data1!$B$107:$B$305</definedName>
-    <definedName name="A2325891R_Data">Data1!$B$107:$B$305</definedName>
-    <definedName name="A2325891R_Latest">Data1!$B$305</definedName>
-    <definedName name="A2325892T">Data1!$N$1:$N$10,Data1!$N$111:$N$305</definedName>
-    <definedName name="A2325892T_Data">Data1!$N$111:$N$305</definedName>
-    <definedName name="A2325892T_Latest">Data1!$N$305</definedName>
-    <definedName name="A2325895X">Data1!$Z$1:$Z$10,Data1!$Z$108:$Z$305</definedName>
-    <definedName name="A2325895X_Data">Data1!$Z$108:$Z$305</definedName>
-    <definedName name="A2325895X_Latest">Data1!$Z$305</definedName>
-    <definedName name="A2325936J">Data1!$D$1:$D$10,Data1!$D$107:$D$305</definedName>
-    <definedName name="A2325936J_Data">Data1!$D$107:$D$305</definedName>
-    <definedName name="A2325936J_Latest">Data1!$D$305</definedName>
-    <definedName name="A2325937K">Data1!$P$1:$P$10,Data1!$P$111:$P$305</definedName>
-    <definedName name="A2325937K_Data">Data1!$P$111:$P$305</definedName>
-    <definedName name="A2325937K_Latest">Data1!$P$305</definedName>
-    <definedName name="A2325940X">Data1!$AB$1:$AB$10,Data1!$AB$108:$AB$305</definedName>
-    <definedName name="A2325940X_Data">Data1!$AB$108:$AB$305</definedName>
-    <definedName name="A2325940X_Latest">Data1!$AB$305</definedName>
-    <definedName name="A2325981V">Data1!$E$1:$E$10,Data1!$E$107:$E$305</definedName>
-    <definedName name="A2325981V_Data">Data1!$E$107:$E$305</definedName>
-    <definedName name="A2325981V_Latest">Data1!$E$305</definedName>
-    <definedName name="A2325982W">Data1!$Q$1:$Q$10,Data1!$Q$111:$Q$305</definedName>
-    <definedName name="A2325982W_Data">Data1!$Q$111:$Q$305</definedName>
-    <definedName name="A2325982W_Latest">Data1!$Q$305</definedName>
-    <definedName name="A2325985C">Data1!$AC$1:$AC$10,Data1!$AC$108:$AC$305</definedName>
-    <definedName name="A2325985C_Data">Data1!$AC$108:$AC$305</definedName>
-    <definedName name="A2325985C_Latest">Data1!$AC$305</definedName>
-    <definedName name="A2326026R">Data1!$F$1:$F$10,Data1!$F$107:$F$305</definedName>
-    <definedName name="A2326026R_Data">Data1!$F$107:$F$305</definedName>
-    <definedName name="A2326026R_Latest">Data1!$F$305</definedName>
-    <definedName name="A2326027T">Data1!$R$1:$R$10,Data1!$R$111:$R$305</definedName>
-    <definedName name="A2326027T_Data">Data1!$R$111:$R$305</definedName>
-    <definedName name="A2326027T_Latest">Data1!$R$305</definedName>
-    <definedName name="A2326030F">Data1!$AD$1:$AD$10,Data1!$AD$108:$AD$305</definedName>
-    <definedName name="A2326030F_Data">Data1!$AD$108:$AD$305</definedName>
-    <definedName name="A2326030F_Latest">Data1!$AD$305</definedName>
-    <definedName name="A2326071A">Data1!$H$1:$H$10,Data1!$H$107:$H$305</definedName>
-    <definedName name="A2326071A_Data">Data1!$H$107:$H$305</definedName>
-    <definedName name="A2326071A_Latest">Data1!$H$305</definedName>
-    <definedName name="A2326072C">Data1!$T$1:$T$10,Data1!$T$111:$T$305</definedName>
-    <definedName name="A2326072C_Data">Data1!$T$111:$T$305</definedName>
-    <definedName name="A2326072C_Latest">Data1!$T$305</definedName>
-    <definedName name="A2326075K">Data1!$AF$1:$AF$10,Data1!$AF$108:$AF$305</definedName>
-    <definedName name="A2326075K_Data">Data1!$AF$108:$AF$305</definedName>
-    <definedName name="A2326075K_Latest">Data1!$AF$305</definedName>
-    <definedName name="A2326116V">Data1!$C$1:$C$10,Data1!$C$107:$C$305</definedName>
-    <definedName name="A2326116V_Data">Data1!$C$107:$C$305</definedName>
-    <definedName name="A2326116V_Latest">Data1!$C$305</definedName>
-    <definedName name="A2326117W">Data1!$O$1:$O$10,Data1!$O$111:$O$305</definedName>
-    <definedName name="A2326117W_Data">Data1!$O$111:$O$305</definedName>
-    <definedName name="A2326117W_Latest">Data1!$O$305</definedName>
-    <definedName name="A2326120K">Data1!$AA$1:$AA$10,Data1!$AA$108:$AA$305</definedName>
-    <definedName name="A2326120K_Data">Data1!$AA$108:$AA$305</definedName>
-    <definedName name="A2326120K_Latest">Data1!$AA$305</definedName>
-    <definedName name="A2331111C">Data1!$G$1:$G$10,Data1!$G$175:$G$305</definedName>
-    <definedName name="A2331111C_Data">Data1!$G$175:$G$305</definedName>
-    <definedName name="A2331111C_Latest">Data1!$G$305</definedName>
-    <definedName name="A2331112F">Data1!$S$1:$S$10,Data1!$S$179:$S$305</definedName>
-    <definedName name="A2331112F_Data">Data1!$S$179:$S$305</definedName>
-    <definedName name="A2331112F_Latest">Data1!$S$305</definedName>
-    <definedName name="A2331115L">Data1!$AE$1:$AE$10,Data1!$AE$176:$AE$305</definedName>
-    <definedName name="A2331115L_Data">Data1!$AE$176:$AE$305</definedName>
-    <definedName name="A2331115L_Latest">Data1!$AE$305</definedName>
-    <definedName name="A2331201J">Data1!$I$1:$I$10,Data1!$I$107:$I$305</definedName>
-    <definedName name="A2331201J_Data">Data1!$I$107:$I$305</definedName>
-    <definedName name="A2331201J_Latest">Data1!$I$305</definedName>
-    <definedName name="A2331202K">Data1!$U$1:$U$10,Data1!$U$111:$U$305</definedName>
-    <definedName name="A2331202K_Data">Data1!$U$111:$U$305</definedName>
-    <definedName name="A2331202K_Latest">Data1!$U$305</definedName>
-    <definedName name="A2331205T">Data1!$AG$1:$AG$10,Data1!$AG$108:$AG$305</definedName>
-    <definedName name="A2331205T_Data">Data1!$AG$108:$AG$305</definedName>
-    <definedName name="A2331205T_Latest">Data1!$AG$305</definedName>
-    <definedName name="A2331246L">Data1!$J$1:$J$10,Data1!$J$175:$J$305</definedName>
-    <definedName name="A2331246L_Data">Data1!$J$175:$J$305</definedName>
-    <definedName name="A2331246L_Latest">Data1!$J$305</definedName>
-    <definedName name="A2331247R">Data1!$V$1:$V$10,Data1!$V$179:$V$305</definedName>
-    <definedName name="A2331247R_Data">Data1!$V$179:$V$305</definedName>
-    <definedName name="A2331247R_Latest">Data1!$V$305</definedName>
-    <definedName name="A2331250C">Data1!$AH$1:$AH$10,Data1!$AH$176:$AH$305</definedName>
-    <definedName name="A2331250C_Data">Data1!$AH$176:$AH$305</definedName>
-    <definedName name="A2331250C_Latest">Data1!$AH$305</definedName>
-    <definedName name="A2331426W">Data1!$K$1:$K$10,Data1!$K$145:$K$305</definedName>
-    <definedName name="A2331426W_Data">Data1!$K$145:$K$305</definedName>
-    <definedName name="A2331426W_Latest">Data1!$K$305</definedName>
-    <definedName name="A2331427X">Data1!$W$1:$W$10,Data1!$W$149:$W$305</definedName>
-    <definedName name="A2331427X_Data">Data1!$W$149:$W$305</definedName>
-    <definedName name="A2331427X_Latest">Data1!$W$305</definedName>
-    <definedName name="A2331430L">Data1!$AI$1:$AI$10,Data1!$AI$146:$AI$305</definedName>
-    <definedName name="A2331430L_Data">Data1!$AI$146:$AI$305</definedName>
-    <definedName name="A2331430L_Latest">Data1!$AI$305</definedName>
-    <definedName name="A2332596F">Data1!$L$1:$L$10,Data1!$L$238:$L$305</definedName>
-    <definedName name="A2332596F_Data">Data1!$L$238:$L$305</definedName>
-    <definedName name="A2332596F_Latest">Data1!$L$305</definedName>
-    <definedName name="A2332597J">Data1!$X$1:$X$10,Data1!$X$242:$X$305</definedName>
-    <definedName name="A2332597J_Data">Data1!$X$242:$X$305</definedName>
-    <definedName name="A2332597J_Latest">Data1!$X$305</definedName>
-    <definedName name="A2332600K">Data1!$AJ$1:$AJ$10,Data1!$AJ$239:$AJ$305</definedName>
-    <definedName name="A2332600K_Data">Data1!$AJ$239:$AJ$305</definedName>
-    <definedName name="A2332600K_Latest">Data1!$AJ$305</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$305</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$305</definedName>
+    <definedName name="A2325846C">Data1!$M$1:$M$10,Data1!$M$11:$M$306</definedName>
+    <definedName name="A2325846C_Data">Data1!$M$11:$M$306</definedName>
+    <definedName name="A2325846C_Latest">Data1!$M$306</definedName>
+    <definedName name="A2325847F">Data1!$Y$1:$Y$10,Data1!$Y$15:$Y$306</definedName>
+    <definedName name="A2325847F_Data">Data1!$Y$15:$Y$306</definedName>
+    <definedName name="A2325847F_Latest">Data1!$Y$306</definedName>
+    <definedName name="A2325850V">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$306</definedName>
+    <definedName name="A2325850V_Data">Data1!$AK$12:$AK$306</definedName>
+    <definedName name="A2325850V_Latest">Data1!$AK$306</definedName>
+    <definedName name="A2325891R">Data1!$B$1:$B$10,Data1!$B$107:$B$306</definedName>
+    <definedName name="A2325891R_Data">Data1!$B$107:$B$306</definedName>
+    <definedName name="A2325891R_Latest">Data1!$B$306</definedName>
+    <definedName name="A2325892T">Data1!$N$1:$N$10,Data1!$N$111:$N$306</definedName>
+    <definedName name="A2325892T_Data">Data1!$N$111:$N$306</definedName>
+    <definedName name="A2325892T_Latest">Data1!$N$306</definedName>
+    <definedName name="A2325895X">Data1!$Z$1:$Z$10,Data1!$Z$108:$Z$306</definedName>
+    <definedName name="A2325895X_Data">Data1!$Z$108:$Z$306</definedName>
+    <definedName name="A2325895X_Latest">Data1!$Z$306</definedName>
+    <definedName name="A2325936J">Data1!$D$1:$D$10,Data1!$D$107:$D$306</definedName>
+    <definedName name="A2325936J_Data">Data1!$D$107:$D$306</definedName>
+    <definedName name="A2325936J_Latest">Data1!$D$306</definedName>
+    <definedName name="A2325937K">Data1!$P$1:$P$10,Data1!$P$111:$P$306</definedName>
+    <definedName name="A2325937K_Data">Data1!$P$111:$P$306</definedName>
+    <definedName name="A2325937K_Latest">Data1!$P$306</definedName>
+    <definedName name="A2325940X">Data1!$AB$1:$AB$10,Data1!$AB$108:$AB$306</definedName>
+    <definedName name="A2325940X_Data">Data1!$AB$108:$AB$306</definedName>
+    <definedName name="A2325940X_Latest">Data1!$AB$306</definedName>
+    <definedName name="A2325981V">Data1!$E$1:$E$10,Data1!$E$107:$E$306</definedName>
+    <definedName name="A2325981V_Data">Data1!$E$107:$E$306</definedName>
+    <definedName name="A2325981V_Latest">Data1!$E$306</definedName>
+    <definedName name="A2325982W">Data1!$Q$1:$Q$10,Data1!$Q$111:$Q$306</definedName>
+    <definedName name="A2325982W_Data">Data1!$Q$111:$Q$306</definedName>
+    <definedName name="A2325982W_Latest">Data1!$Q$306</definedName>
+    <definedName name="A2325985C">Data1!$AC$1:$AC$10,Data1!$AC$108:$AC$306</definedName>
+    <definedName name="A2325985C_Data">Data1!$AC$108:$AC$306</definedName>
+    <definedName name="A2325985C_Latest">Data1!$AC$306</definedName>
+    <definedName name="A2326026R">Data1!$F$1:$F$10,Data1!$F$107:$F$306</definedName>
+    <definedName name="A2326026R_Data">Data1!$F$107:$F$306</definedName>
+    <definedName name="A2326026R_Latest">Data1!$F$306</definedName>
+    <definedName name="A2326027T">Data1!$R$1:$R$10,Data1!$R$111:$R$306</definedName>
+    <definedName name="A2326027T_Data">Data1!$R$111:$R$306</definedName>
+    <definedName name="A2326027T_Latest">Data1!$R$306</definedName>
+    <definedName name="A2326030F">Data1!$AD$1:$AD$10,Data1!$AD$108:$AD$306</definedName>
+    <definedName name="A2326030F_Data">Data1!$AD$108:$AD$306</definedName>
+    <definedName name="A2326030F_Latest">Data1!$AD$306</definedName>
+    <definedName name="A2326071A">Data1!$H$1:$H$10,Data1!$H$107:$H$306</definedName>
+    <definedName name="A2326071A_Data">Data1!$H$107:$H$306</definedName>
+    <definedName name="A2326071A_Latest">Data1!$H$306</definedName>
+    <definedName name="A2326072C">Data1!$T$1:$T$10,Data1!$T$111:$T$306</definedName>
+    <definedName name="A2326072C_Data">Data1!$T$111:$T$306</definedName>
+    <definedName name="A2326072C_Latest">Data1!$T$306</definedName>
+    <definedName name="A2326075K">Data1!$AF$1:$AF$10,Data1!$AF$108:$AF$306</definedName>
+    <definedName name="A2326075K_Data">Data1!$AF$108:$AF$306</definedName>
+    <definedName name="A2326075K_Latest">Data1!$AF$306</definedName>
+    <definedName name="A2326116V">Data1!$C$1:$C$10,Data1!$C$107:$C$306</definedName>
+    <definedName name="A2326116V_Data">Data1!$C$107:$C$306</definedName>
+    <definedName name="A2326116V_Latest">Data1!$C$306</definedName>
+    <definedName name="A2326117W">Data1!$O$1:$O$10,Data1!$O$111:$O$306</definedName>
+    <definedName name="A2326117W_Data">Data1!$O$111:$O$306</definedName>
+    <definedName name="A2326117W_Latest">Data1!$O$306</definedName>
+    <definedName name="A2326120K">Data1!$AA$1:$AA$10,Data1!$AA$108:$AA$306</definedName>
+    <definedName name="A2326120K_Data">Data1!$AA$108:$AA$306</definedName>
+    <definedName name="A2326120K_Latest">Data1!$AA$306</definedName>
+    <definedName name="A2331111C">Data1!$G$1:$G$10,Data1!$G$175:$G$306</definedName>
+    <definedName name="A2331111C_Data">Data1!$G$175:$G$306</definedName>
+    <definedName name="A2331111C_Latest">Data1!$G$306</definedName>
+    <definedName name="A2331112F">Data1!$S$1:$S$10,Data1!$S$179:$S$306</definedName>
+    <definedName name="A2331112F_Data">Data1!$S$179:$S$306</definedName>
+    <definedName name="A2331112F_Latest">Data1!$S$306</definedName>
+    <definedName name="A2331115L">Data1!$AE$1:$AE$10,Data1!$AE$176:$AE$306</definedName>
+    <definedName name="A2331115L_Data">Data1!$AE$176:$AE$306</definedName>
+    <definedName name="A2331115L_Latest">Data1!$AE$306</definedName>
+    <definedName name="A2331201J">Data1!$I$1:$I$10,Data1!$I$107:$I$306</definedName>
+    <definedName name="A2331201J_Data">Data1!$I$107:$I$306</definedName>
+    <definedName name="A2331201J_Latest">Data1!$I$306</definedName>
+    <definedName name="A2331202K">Data1!$U$1:$U$10,Data1!$U$111:$U$306</definedName>
+    <definedName name="A2331202K_Data">Data1!$U$111:$U$306</definedName>
+    <definedName name="A2331202K_Latest">Data1!$U$306</definedName>
+    <definedName name="A2331205T">Data1!$AG$1:$AG$10,Data1!$AG$108:$AG$306</definedName>
+    <definedName name="A2331205T_Data">Data1!$AG$108:$AG$306</definedName>
+    <definedName name="A2331205T_Latest">Data1!$AG$306</definedName>
+    <definedName name="A2331246L">Data1!$J$1:$J$10,Data1!$J$175:$J$306</definedName>
+    <definedName name="A2331246L_Data">Data1!$J$175:$J$306</definedName>
+    <definedName name="A2331246L_Latest">Data1!$J$306</definedName>
+    <definedName name="A2331247R">Data1!$V$1:$V$10,Data1!$V$179:$V$306</definedName>
+    <definedName name="A2331247R_Data">Data1!$V$179:$V$306</definedName>
+    <definedName name="A2331247R_Latest">Data1!$V$306</definedName>
+    <definedName name="A2331250C">Data1!$AH$1:$AH$10,Data1!$AH$176:$AH$306</definedName>
+    <definedName name="A2331250C_Data">Data1!$AH$176:$AH$306</definedName>
+    <definedName name="A2331250C_Latest">Data1!$AH$306</definedName>
+    <definedName name="A2331426W">Data1!$K$1:$K$10,Data1!$K$145:$K$306</definedName>
+    <definedName name="A2331426W_Data">Data1!$K$145:$K$306</definedName>
+    <definedName name="A2331426W_Latest">Data1!$K$306</definedName>
+    <definedName name="A2331427X">Data1!$W$1:$W$10,Data1!$W$149:$W$306</definedName>
+    <definedName name="A2331427X_Data">Data1!$W$149:$W$306</definedName>
+    <definedName name="A2331427X_Latest">Data1!$W$306</definedName>
+    <definedName name="A2331430L">Data1!$AI$1:$AI$10,Data1!$AI$146:$AI$306</definedName>
+    <definedName name="A2331430L_Data">Data1!$AI$146:$AI$306</definedName>
+    <definedName name="A2331430L_Latest">Data1!$AI$306</definedName>
+    <definedName name="A2332596F">Data1!$L$1:$L$10,Data1!$L$238:$L$306</definedName>
+    <definedName name="A2332596F_Data">Data1!$L$238:$L$306</definedName>
+    <definedName name="A2332596F_Latest">Data1!$L$306</definedName>
+    <definedName name="A2332597J">Data1!$X$1:$X$10,Data1!$X$242:$X$306</definedName>
+    <definedName name="A2332597J_Data">Data1!$X$242:$X$306</definedName>
+    <definedName name="A2332597J_Latest">Data1!$X$306</definedName>
+    <definedName name="A2332600K">Data1!$AJ$1:$AJ$10,Data1!$AJ$239:$AJ$306</definedName>
+    <definedName name="A2332600K_Data">Data1!$AJ$239:$AJ$306</definedName>
+    <definedName name="A2332600K_Latest">Data1!$AJ$306</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$306</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$306</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1484,10 +1484,10 @@
         <v>26543</v>
       </c>
       <c r="G12" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H12" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>45</v>
@@ -1516,10 +1516,10 @@
         <v>26543</v>
       </c>
       <c r="G13" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H13" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>45</v>
@@ -1548,10 +1548,10 @@
         <v>26543</v>
       </c>
       <c r="G14" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H14" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>45</v>
@@ -1580,10 +1580,10 @@
         <v>26543</v>
       </c>
       <c r="G15" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H15" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>45</v>
@@ -1612,10 +1612,10 @@
         <v>26543</v>
       </c>
       <c r="G16" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H16" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>45</v>
@@ -1644,10 +1644,10 @@
         <v>32752</v>
       </c>
       <c r="G17" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H17" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>45</v>
@@ -1676,10 +1676,10 @@
         <v>26543</v>
       </c>
       <c r="G18" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H18" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>45</v>
@@ -1708,10 +1708,10 @@
         <v>26543</v>
       </c>
       <c r="G19" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H19" s="10">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>45</v>
@@ -1740,10 +1740,10 @@
         <v>32752</v>
       </c>
       <c r="G20" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H20" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>45</v>
@@ -1772,10 +1772,10 @@
         <v>30011</v>
       </c>
       <c r="G21" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H21" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>45</v>
@@ -1804,10 +1804,10 @@
         <v>38504</v>
       </c>
       <c r="G22" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H22" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>45</v>
@@ -1836,10 +1836,10 @@
         <v>17777</v>
       </c>
       <c r="G23" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H23" s="10">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>45</v>
@@ -1868,10 +1868,10 @@
         <v>26908</v>
       </c>
       <c r="G24" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H24" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>61</v>
@@ -1900,10 +1900,10 @@
         <v>26908</v>
       </c>
       <c r="G25" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H25" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>61</v>
@@ -1932,10 +1932,10 @@
         <v>26908</v>
       </c>
       <c r="G26" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H26" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>61</v>
@@ -1964,10 +1964,10 @@
         <v>26908</v>
       </c>
       <c r="G27" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H27" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>61</v>
@@ -1996,10 +1996,10 @@
         <v>26908</v>
       </c>
       <c r="G28" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H28" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>61</v>
@@ -2028,10 +2028,10 @@
         <v>33117</v>
       </c>
       <c r="G29" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H29" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>61</v>
@@ -2060,10 +2060,10 @@
         <v>26908</v>
       </c>
       <c r="G30" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H30" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>61</v>
@@ -2092,10 +2092,10 @@
         <v>26908</v>
       </c>
       <c r="G31" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H31" s="10">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>61</v>
@@ -2124,10 +2124,10 @@
         <v>33117</v>
       </c>
       <c r="G32" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H32" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>61</v>
@@ -2156,10 +2156,10 @@
         <v>30376</v>
       </c>
       <c r="G33" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H33" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>61</v>
@@ -2188,10 +2188,10 @@
         <v>38869</v>
       </c>
       <c r="G34" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H34" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>61</v>
@@ -2220,10 +2220,10 @@
         <v>18142</v>
       </c>
       <c r="G35" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H35" s="10">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>61</v>
@@ -2252,10 +2252,10 @@
         <v>26634</v>
       </c>
       <c r="G36" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H36" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>61</v>
@@ -2284,10 +2284,10 @@
         <v>26634</v>
       </c>
       <c r="G37" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H37" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>61</v>
@@ -2316,10 +2316,10 @@
         <v>26634</v>
       </c>
       <c r="G38" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H38" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>61</v>
@@ -2348,10 +2348,10 @@
         <v>26634</v>
       </c>
       <c r="G39" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H39" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>61</v>
@@ -2380,10 +2380,10 @@
         <v>26634</v>
       </c>
       <c r="G40" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H40" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>61</v>
@@ -2412,10 +2412,10 @@
         <v>32843</v>
       </c>
       <c r="G41" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H41" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>61</v>
@@ -2444,10 +2444,10 @@
         <v>26634</v>
       </c>
       <c r="G42" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H42" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>61</v>
@@ -2476,10 +2476,10 @@
         <v>26634</v>
       </c>
       <c r="G43" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H43" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>61</v>
@@ -2508,10 +2508,10 @@
         <v>32843</v>
       </c>
       <c r="G44" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H44" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>61</v>
@@ -2540,10 +2540,10 @@
         <v>30103</v>
       </c>
       <c r="G45" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H45" s="10">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>61</v>
@@ -2572,10 +2572,10 @@
         <v>38596</v>
       </c>
       <c r="G46" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H46" s="10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>61</v>
@@ -2604,10 +2604,10 @@
         <v>17868</v>
       </c>
       <c r="G47" s="9">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H47" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>61</v>
@@ -2678,7 +2678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK305"/>
+  <dimension ref="A1:AK306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -3485,112 +3485,112 @@
         <v>42</v>
       </c>
       <c r="B8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="C8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="D8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="E8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="F8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="G8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="H8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="I8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="J8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="K8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="L8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="M8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="N8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="O8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="P8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Q8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="R8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="S8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="T8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="U8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="V8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="W8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="X8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Y8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="Z8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AA8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AB8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AC8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AD8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AE8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AF8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AG8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AH8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AI8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="AK8" s="6">
-        <v>44621</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -3598,112 +3598,112 @@
         <v>43</v>
       </c>
       <c r="B9" s="1">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+      <c r="G9" s="1">
+        <v>132</v>
+      </c>
+      <c r="H9" s="1">
+        <v>200</v>
+      </c>
+      <c r="I9" s="1">
+        <v>200</v>
+      </c>
+      <c r="J9" s="1">
+        <v>132</v>
+      </c>
+      <c r="K9" s="1">
+        <v>162</v>
+      </c>
+      <c r="L9" s="1">
+        <v>69</v>
+      </c>
+      <c r="M9" s="1">
+        <v>296</v>
+      </c>
+      <c r="N9" s="1">
+        <v>196</v>
+      </c>
+      <c r="O9" s="1">
+        <v>196</v>
+      </c>
+      <c r="P9" s="1">
+        <v>196</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>196</v>
+      </c>
+      <c r="R9" s="1">
+        <v>196</v>
+      </c>
+      <c r="S9" s="1">
+        <v>128</v>
+      </c>
+      <c r="T9" s="1">
+        <v>196</v>
+      </c>
+      <c r="U9" s="1">
+        <v>196</v>
+      </c>
+      <c r="V9" s="1">
+        <v>128</v>
+      </c>
+      <c r="W9" s="1">
+        <v>158</v>
+      </c>
+      <c r="X9" s="1">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>292</v>
+      </c>
+      <c r="Z9" s="1">
         <v>199</v>
       </c>
-      <c r="C9" s="1">
+      <c r="AA9" s="1">
         <v>199</v>
       </c>
-      <c r="D9" s="1">
+      <c r="AB9" s="1">
         <v>199</v>
       </c>
-      <c r="E9" s="1">
+      <c r="AC9" s="1">
         <v>199</v>
       </c>
-      <c r="F9" s="1">
+      <c r="AD9" s="1">
         <v>199</v>
       </c>
-      <c r="G9" s="1">
+      <c r="AE9" s="1">
         <v>131</v>
       </c>
-      <c r="H9" s="1">
+      <c r="AF9" s="1">
         <v>199</v>
       </c>
-      <c r="I9" s="1">
+      <c r="AG9" s="1">
         <v>199</v>
       </c>
-      <c r="J9" s="1">
+      <c r="AH9" s="1">
         <v>131</v>
       </c>
-      <c r="K9" s="1">
+      <c r="AI9" s="1">
         <v>161</v>
       </c>
-      <c r="L9" s="1">
+      <c r="AJ9" s="1">
         <v>68</v>
       </c>
-      <c r="M9" s="1">
+      <c r="AK9" s="1">
         <v>295</v>
-      </c>
-      <c r="N9" s="1">
-        <v>195</v>
-      </c>
-      <c r="O9" s="1">
-        <v>195</v>
-      </c>
-      <c r="P9" s="1">
-        <v>195</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>195</v>
-      </c>
-      <c r="R9" s="1">
-        <v>195</v>
-      </c>
-      <c r="S9" s="1">
-        <v>127</v>
-      </c>
-      <c r="T9" s="1">
-        <v>195</v>
-      </c>
-      <c r="U9" s="1">
-        <v>195</v>
-      </c>
-      <c r="V9" s="1">
-        <v>127</v>
-      </c>
-      <c r="W9" s="1">
-        <v>157</v>
-      </c>
-      <c r="X9" s="1">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>291</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>198</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>198</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>198</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>198</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>198</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>130</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>198</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>198</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>130</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>160</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>67</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -24723,6 +24723,119 @@
       </c>
       <c r="AK305" s="8">
         <v>2.1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A306" s="9">
+        <v>44713</v>
+      </c>
+      <c r="B306" s="8">
+        <v>120.6</v>
+      </c>
+      <c r="C306" s="8">
+        <v>179.6</v>
+      </c>
+      <c r="D306" s="8">
+        <v>96.7</v>
+      </c>
+      <c r="E306" s="8">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="F306" s="8">
+        <v>116.3</v>
+      </c>
+      <c r="G306" s="8">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="H306" s="8">
+        <v>124.3</v>
+      </c>
+      <c r="I306" s="8">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="J306" s="8">
+        <v>112.9</v>
+      </c>
+      <c r="K306" s="8">
+        <v>146</v>
+      </c>
+      <c r="L306" s="8">
+        <v>121.1</v>
+      </c>
+      <c r="M306" s="8">
+        <v>126.1</v>
+      </c>
+      <c r="N306" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="O306" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P306" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="Q306" s="8">
+        <v>9</v>
+      </c>
+      <c r="R306" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="S306" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="T306" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="U306" s="8">
+        <v>0</v>
+      </c>
+      <c r="V306" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="W306" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="X306" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="Y306" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="Z306" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA306" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AB306" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AC306" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AD306" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="AE306" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AF306" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG306" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AH306" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AI306" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ306" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AK306" s="8">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/abs/6401.0/640102.xlsx
+++ b/data-raw/abs/6401.0/640102.xlsx
@@ -12,116 +12,116 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2325846C">Data1!$M$1:$M$10,Data1!$M$11:$M$306</definedName>
-    <definedName name="A2325846C_Data">Data1!$M$11:$M$306</definedName>
-    <definedName name="A2325846C_Latest">Data1!$M$306</definedName>
-    <definedName name="A2325847F">Data1!$Y$1:$Y$10,Data1!$Y$15:$Y$306</definedName>
-    <definedName name="A2325847F_Data">Data1!$Y$15:$Y$306</definedName>
-    <definedName name="A2325847F_Latest">Data1!$Y$306</definedName>
-    <definedName name="A2325850V">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$306</definedName>
-    <definedName name="A2325850V_Data">Data1!$AK$12:$AK$306</definedName>
-    <definedName name="A2325850V_Latest">Data1!$AK$306</definedName>
-    <definedName name="A2325891R">Data1!$B$1:$B$10,Data1!$B$107:$B$306</definedName>
-    <definedName name="A2325891R_Data">Data1!$B$107:$B$306</definedName>
-    <definedName name="A2325891R_Latest">Data1!$B$306</definedName>
-    <definedName name="A2325892T">Data1!$N$1:$N$10,Data1!$N$111:$N$306</definedName>
-    <definedName name="A2325892T_Data">Data1!$N$111:$N$306</definedName>
-    <definedName name="A2325892T_Latest">Data1!$N$306</definedName>
-    <definedName name="A2325895X">Data1!$Z$1:$Z$10,Data1!$Z$108:$Z$306</definedName>
-    <definedName name="A2325895X_Data">Data1!$Z$108:$Z$306</definedName>
-    <definedName name="A2325895X_Latest">Data1!$Z$306</definedName>
-    <definedName name="A2325936J">Data1!$D$1:$D$10,Data1!$D$107:$D$306</definedName>
-    <definedName name="A2325936J_Data">Data1!$D$107:$D$306</definedName>
-    <definedName name="A2325936J_Latest">Data1!$D$306</definedName>
-    <definedName name="A2325937K">Data1!$P$1:$P$10,Data1!$P$111:$P$306</definedName>
-    <definedName name="A2325937K_Data">Data1!$P$111:$P$306</definedName>
-    <definedName name="A2325937K_Latest">Data1!$P$306</definedName>
-    <definedName name="A2325940X">Data1!$AB$1:$AB$10,Data1!$AB$108:$AB$306</definedName>
-    <definedName name="A2325940X_Data">Data1!$AB$108:$AB$306</definedName>
-    <definedName name="A2325940X_Latest">Data1!$AB$306</definedName>
-    <definedName name="A2325981V">Data1!$E$1:$E$10,Data1!$E$107:$E$306</definedName>
-    <definedName name="A2325981V_Data">Data1!$E$107:$E$306</definedName>
-    <definedName name="A2325981V_Latest">Data1!$E$306</definedName>
-    <definedName name="A2325982W">Data1!$Q$1:$Q$10,Data1!$Q$111:$Q$306</definedName>
-    <definedName name="A2325982W_Data">Data1!$Q$111:$Q$306</definedName>
-    <definedName name="A2325982W_Latest">Data1!$Q$306</definedName>
-    <definedName name="A2325985C">Data1!$AC$1:$AC$10,Data1!$AC$108:$AC$306</definedName>
-    <definedName name="A2325985C_Data">Data1!$AC$108:$AC$306</definedName>
-    <definedName name="A2325985C_Latest">Data1!$AC$306</definedName>
-    <definedName name="A2326026R">Data1!$F$1:$F$10,Data1!$F$107:$F$306</definedName>
-    <definedName name="A2326026R_Data">Data1!$F$107:$F$306</definedName>
-    <definedName name="A2326026R_Latest">Data1!$F$306</definedName>
-    <definedName name="A2326027T">Data1!$R$1:$R$10,Data1!$R$111:$R$306</definedName>
-    <definedName name="A2326027T_Data">Data1!$R$111:$R$306</definedName>
-    <definedName name="A2326027T_Latest">Data1!$R$306</definedName>
-    <definedName name="A2326030F">Data1!$AD$1:$AD$10,Data1!$AD$108:$AD$306</definedName>
-    <definedName name="A2326030F_Data">Data1!$AD$108:$AD$306</definedName>
-    <definedName name="A2326030F_Latest">Data1!$AD$306</definedName>
-    <definedName name="A2326071A">Data1!$H$1:$H$10,Data1!$H$107:$H$306</definedName>
-    <definedName name="A2326071A_Data">Data1!$H$107:$H$306</definedName>
-    <definedName name="A2326071A_Latest">Data1!$H$306</definedName>
-    <definedName name="A2326072C">Data1!$T$1:$T$10,Data1!$T$111:$T$306</definedName>
-    <definedName name="A2326072C_Data">Data1!$T$111:$T$306</definedName>
-    <definedName name="A2326072C_Latest">Data1!$T$306</definedName>
-    <definedName name="A2326075K">Data1!$AF$1:$AF$10,Data1!$AF$108:$AF$306</definedName>
-    <definedName name="A2326075K_Data">Data1!$AF$108:$AF$306</definedName>
-    <definedName name="A2326075K_Latest">Data1!$AF$306</definedName>
-    <definedName name="A2326116V">Data1!$C$1:$C$10,Data1!$C$107:$C$306</definedName>
-    <definedName name="A2326116V_Data">Data1!$C$107:$C$306</definedName>
-    <definedName name="A2326116V_Latest">Data1!$C$306</definedName>
-    <definedName name="A2326117W">Data1!$O$1:$O$10,Data1!$O$111:$O$306</definedName>
-    <definedName name="A2326117W_Data">Data1!$O$111:$O$306</definedName>
-    <definedName name="A2326117W_Latest">Data1!$O$306</definedName>
-    <definedName name="A2326120K">Data1!$AA$1:$AA$10,Data1!$AA$108:$AA$306</definedName>
-    <definedName name="A2326120K_Data">Data1!$AA$108:$AA$306</definedName>
-    <definedName name="A2326120K_Latest">Data1!$AA$306</definedName>
-    <definedName name="A2331111C">Data1!$G$1:$G$10,Data1!$G$175:$G$306</definedName>
-    <definedName name="A2331111C_Data">Data1!$G$175:$G$306</definedName>
-    <definedName name="A2331111C_Latest">Data1!$G$306</definedName>
-    <definedName name="A2331112F">Data1!$S$1:$S$10,Data1!$S$179:$S$306</definedName>
-    <definedName name="A2331112F_Data">Data1!$S$179:$S$306</definedName>
-    <definedName name="A2331112F_Latest">Data1!$S$306</definedName>
-    <definedName name="A2331115L">Data1!$AE$1:$AE$10,Data1!$AE$176:$AE$306</definedName>
-    <definedName name="A2331115L_Data">Data1!$AE$176:$AE$306</definedName>
-    <definedName name="A2331115L_Latest">Data1!$AE$306</definedName>
-    <definedName name="A2331201J">Data1!$I$1:$I$10,Data1!$I$107:$I$306</definedName>
-    <definedName name="A2331201J_Data">Data1!$I$107:$I$306</definedName>
-    <definedName name="A2331201J_Latest">Data1!$I$306</definedName>
-    <definedName name="A2331202K">Data1!$U$1:$U$10,Data1!$U$111:$U$306</definedName>
-    <definedName name="A2331202K_Data">Data1!$U$111:$U$306</definedName>
-    <definedName name="A2331202K_Latest">Data1!$U$306</definedName>
-    <definedName name="A2331205T">Data1!$AG$1:$AG$10,Data1!$AG$108:$AG$306</definedName>
-    <definedName name="A2331205T_Data">Data1!$AG$108:$AG$306</definedName>
-    <definedName name="A2331205T_Latest">Data1!$AG$306</definedName>
-    <definedName name="A2331246L">Data1!$J$1:$J$10,Data1!$J$175:$J$306</definedName>
-    <definedName name="A2331246L_Data">Data1!$J$175:$J$306</definedName>
-    <definedName name="A2331246L_Latest">Data1!$J$306</definedName>
-    <definedName name="A2331247R">Data1!$V$1:$V$10,Data1!$V$179:$V$306</definedName>
-    <definedName name="A2331247R_Data">Data1!$V$179:$V$306</definedName>
-    <definedName name="A2331247R_Latest">Data1!$V$306</definedName>
-    <definedName name="A2331250C">Data1!$AH$1:$AH$10,Data1!$AH$176:$AH$306</definedName>
-    <definedName name="A2331250C_Data">Data1!$AH$176:$AH$306</definedName>
-    <definedName name="A2331250C_Latest">Data1!$AH$306</definedName>
-    <definedName name="A2331426W">Data1!$K$1:$K$10,Data1!$K$145:$K$306</definedName>
-    <definedName name="A2331426W_Data">Data1!$K$145:$K$306</definedName>
-    <definedName name="A2331426W_Latest">Data1!$K$306</definedName>
-    <definedName name="A2331427X">Data1!$W$1:$W$10,Data1!$W$149:$W$306</definedName>
-    <definedName name="A2331427X_Data">Data1!$W$149:$W$306</definedName>
-    <definedName name="A2331427X_Latest">Data1!$W$306</definedName>
-    <definedName name="A2331430L">Data1!$AI$1:$AI$10,Data1!$AI$146:$AI$306</definedName>
-    <definedName name="A2331430L_Data">Data1!$AI$146:$AI$306</definedName>
-    <definedName name="A2331430L_Latest">Data1!$AI$306</definedName>
-    <definedName name="A2332596F">Data1!$L$1:$L$10,Data1!$L$238:$L$306</definedName>
-    <definedName name="A2332596F_Data">Data1!$L$238:$L$306</definedName>
-    <definedName name="A2332596F_Latest">Data1!$L$306</definedName>
-    <definedName name="A2332597J">Data1!$X$1:$X$10,Data1!$X$242:$X$306</definedName>
-    <definedName name="A2332597J_Data">Data1!$X$242:$X$306</definedName>
-    <definedName name="A2332597J_Latest">Data1!$X$306</definedName>
-    <definedName name="A2332600K">Data1!$AJ$1:$AJ$10,Data1!$AJ$239:$AJ$306</definedName>
-    <definedName name="A2332600K_Data">Data1!$AJ$239:$AJ$306</definedName>
-    <definedName name="A2332600K_Latest">Data1!$AJ$306</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$306</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$306</definedName>
+    <definedName name="A2325846C">Data1!$M$1:$M$10,Data1!$M$11:$M$308</definedName>
+    <definedName name="A2325846C_Data">Data1!$M$11:$M$308</definedName>
+    <definedName name="A2325846C_Latest">Data1!$M$308</definedName>
+    <definedName name="A2325847F">Data1!$Y$1:$Y$10,Data1!$Y$15:$Y$308</definedName>
+    <definedName name="A2325847F_Data">Data1!$Y$15:$Y$308</definedName>
+    <definedName name="A2325847F_Latest">Data1!$Y$308</definedName>
+    <definedName name="A2325850V">Data1!$AK$1:$AK$10,Data1!$AK$12:$AK$308</definedName>
+    <definedName name="A2325850V_Data">Data1!$AK$12:$AK$308</definedName>
+    <definedName name="A2325850V_Latest">Data1!$AK$308</definedName>
+    <definedName name="A2325891R">Data1!$B$1:$B$10,Data1!$B$107:$B$308</definedName>
+    <definedName name="A2325891R_Data">Data1!$B$107:$B$308</definedName>
+    <definedName name="A2325891R_Latest">Data1!$B$308</definedName>
+    <definedName name="A2325892T">Data1!$N$1:$N$10,Data1!$N$111:$N$308</definedName>
+    <definedName name="A2325892T_Data">Data1!$N$111:$N$308</definedName>
+    <definedName name="A2325892T_Latest">Data1!$N$308</definedName>
+    <definedName name="A2325895X">Data1!$Z$1:$Z$10,Data1!$Z$108:$Z$308</definedName>
+    <definedName name="A2325895X_Data">Data1!$Z$108:$Z$308</definedName>
+    <definedName name="A2325895X_Latest">Data1!$Z$308</definedName>
+    <definedName name="A2325936J">Data1!$D$1:$D$10,Data1!$D$107:$D$308</definedName>
+    <definedName name="A2325936J_Data">Data1!$D$107:$D$308</definedName>
+    <definedName name="A2325936J_Latest">Data1!$D$308</definedName>
+    <definedName name="A2325937K">Data1!$P$1:$P$10,Data1!$P$111:$P$308</definedName>
+    <definedName name="A2325937K_Data">Data1!$P$111:$P$308</definedName>
+    <definedName name="A2325937K_Latest">Data1!$P$308</definedName>
+    <definedName name="A2325940X">Data1!$AB$1:$AB$10,Data1!$AB$108:$AB$308</definedName>
+    <definedName name="A2325940X_Data">Data1!$AB$108:$AB$308</definedName>
+    <definedName name="A2325940X_Latest">Data1!$AB$308</definedName>
+    <definedName name="A2325981V">Data1!$E$1:$E$10,Data1!$E$107:$E$308</definedName>
+    <definedName name="A2325981V_Data">Data1!$E$107:$E$308</definedName>
+    <definedName name="A2325981V_Latest">Data1!$E$308</definedName>
+    <definedName name="A2325982W">Data1!$Q$1:$Q$10,Data1!$Q$111:$Q$308</definedName>
+    <definedName name="A2325982W_Data">Data1!$Q$111:$Q$308</definedName>
+    <definedName name="A2325982W_Latest">Data1!$Q$308</definedName>
+    <definedName name="A2325985C">Data1!$AC$1:$AC$10,Data1!$AC$108:$AC$308</definedName>
+    <definedName name="A2325985C_Data">Data1!$AC$108:$AC$308</definedName>
+    <definedName name="A2325985C_Latest">Data1!$AC$308</definedName>
+    <definedName name="A2326026R">Data1!$F$1:$F$10,Data1!$F$107:$F$308</definedName>
+    <definedName name="A2326026R_Data">Data1!$F$107:$F$308</definedName>
+    <definedName name="A2326026R_Latest">Data1!$F$308</definedName>
+    <definedName name="A2326027T">Data1!$R$1:$R$10,Data1!$R$111:$R$308</definedName>
+    <definedName name="A2326027T_Data">Data1!$R$111:$R$308</definedName>
+    <definedName name="A2326027T_Latest">Data1!$R$308</definedName>
+    <definedName name="A2326030F">Data1!$AD$1:$AD$10,Data1!$AD$108:$AD$308</definedName>
+    <definedName name="A2326030F_Data">Data1!$AD$108:$AD$308</definedName>
+    <definedName name="A2326030F_Latest">Data1!$AD$308</definedName>
+    <definedName name="A2326071A">Data1!$H$1:$H$10,Data1!$H$107:$H$308</definedName>
+    <definedName name="A2326071A_Data">Data1!$H$107:$H$308</definedName>
+    <definedName name="A2326071A_Latest">Data1!$H$308</definedName>
+    <definedName name="A2326072C">Data1!$T$1:$T$10,Data1!$T$111:$T$308</definedName>
+    <definedName name="A2326072C_Data">Data1!$T$111:$T$308</definedName>
+    <definedName name="A2326072C_Latest">Data1!$T$308</definedName>
+    <definedName name="A2326075K">Data1!$AF$1:$AF$10,Data1!$AF$108:$AF$308</definedName>
+    <definedName name="A2326075K_Data">Data1!$AF$108:$AF$308</definedName>
+    <definedName name="A2326075K_Latest">Data1!$AF$308</definedName>
+    <definedName name="A2326116V">Data1!$C$1:$C$10,Data1!$C$107:$C$308</definedName>
+    <definedName name="A2326116V_Data">Data1!$C$107:$C$308</definedName>
+    <definedName name="A2326116V_Latest">Data1!$C$308</definedName>
+    <definedName name="A2326117W">Data1!$O$1:$O$10,Data1!$O$111:$O$308</definedName>
+    <definedName name="A2326117W_Data">Data1!$O$111:$O$308</definedName>
+    <definedName name="A2326117W_Latest">Data1!$O$308</definedName>
+    <definedName name="A2326120K">Data1!$AA$1:$AA$10,Data1!$AA$108:$AA$308</definedName>
+    <definedName name="A2326120K_Data">Data1!$AA$108:$AA$308</definedName>
+    <definedName name="A2326120K_Latest">Data1!$AA$308</definedName>
+    <definedName name="A2331111C">Data1!$G$1:$G$10,Data1!$G$175:$G$308</definedName>
+    <definedName name="A2331111C_Data">Data1!$G$175:$G$308</definedName>
+    <definedName name="A2331111C_Latest">Data1!$G$308</definedName>
+    <definedName name="A2331112F">Data1!$S$1:$S$10,Data1!$S$179:$S$308</definedName>
+    <definedName name="A2331112F_Data">Data1!$S$179:$S$308</definedName>
+    <definedName name="A2331112F_Latest">Data1!$S$308</definedName>
+    <definedName name="A2331115L">Data1!$AE$1:$AE$10,Data1!$AE$176:$AE$308</definedName>
+    <definedName name="A2331115L_Data">Data1!$AE$176:$AE$308</definedName>
+    <definedName name="A2331115L_Latest">Data1!$AE$308</definedName>
+    <definedName name="A2331201J">Data1!$I$1:$I$10,Data1!$I$107:$I$308</definedName>
+    <definedName name="A2331201J_Data">Data1!$I$107:$I$308</definedName>
+    <definedName name="A2331201J_Latest">Data1!$I$308</definedName>
+    <definedName name="A2331202K">Data1!$U$1:$U$10,Data1!$U$111:$U$308</definedName>
+    <definedName name="A2331202K_Data">Data1!$U$111:$U$308</definedName>
+    <definedName name="A2331202K_Latest">Data1!$U$308</definedName>
+    <definedName name="A2331205T">Data1!$AG$1:$AG$10,Data1!$AG$108:$AG$308</definedName>
+    <definedName name="A2331205T_Data">Data1!$AG$108:$AG$308</definedName>
+    <definedName name="A2331205T_Latest">Data1!$AG$308</definedName>
+    <definedName name="A2331246L">Data1!$J$1:$J$10,Data1!$J$175:$J$308</definedName>
+    <definedName name="A2331246L_Data">Data1!$J$175:$J$308</definedName>
+    <definedName name="A2331246L_Latest">Data1!$J$308</definedName>
+    <definedName name="A2331247R">Data1!$V$1:$V$10,Data1!$V$179:$V$308</definedName>
+    <definedName name="A2331247R_Data">Data1!$V$179:$V$308</definedName>
+    <definedName name="A2331247R_Latest">Data1!$V$308</definedName>
+    <definedName name="A2331250C">Data1!$AH$1:$AH$10,Data1!$AH$176:$AH$308</definedName>
+    <definedName name="A2331250C_Data">Data1!$AH$176:$AH$308</definedName>
+    <definedName name="A2331250C_Latest">Data1!$AH$308</definedName>
+    <definedName name="A2331426W">Data1!$K$1:$K$10,Data1!$K$145:$K$308</definedName>
+    <definedName name="A2331426W_Data">Data1!$K$145:$K$308</definedName>
+    <definedName name="A2331426W_Latest">Data1!$K$308</definedName>
+    <definedName name="A2331427X">Data1!$W$1:$W$10,Data1!$W$149:$W$308</definedName>
+    <definedName name="A2331427X_Data">Data1!$W$149:$W$308</definedName>
+    <definedName name="A2331427X_Latest">Data1!$W$308</definedName>
+    <definedName name="A2331430L">Data1!$AI$1:$AI$10,Data1!$AI$146:$AI$308</definedName>
+    <definedName name="A2331430L_Data">Data1!$AI$146:$AI$308</definedName>
+    <definedName name="A2331430L_Latest">Data1!$AI$308</definedName>
+    <definedName name="A2332596F">Data1!$L$1:$L$10,Data1!$L$238:$L$308</definedName>
+    <definedName name="A2332596F_Data">Data1!$L$238:$L$308</definedName>
+    <definedName name="A2332596F_Latest">Data1!$L$308</definedName>
+    <definedName name="A2332597J">Data1!$X$1:$X$10,Data1!$X$242:$X$308</definedName>
+    <definedName name="A2332597J_Data">Data1!$X$242:$X$308</definedName>
+    <definedName name="A2332597J_Latest">Data1!$X$308</definedName>
+    <definedName name="A2332600K">Data1!$AJ$1:$AJ$10,Data1!$AJ$239:$AJ$308</definedName>
+    <definedName name="A2332600K_Data">Data1!$AJ$239:$AJ$308</definedName>
+    <definedName name="A2332600K_Latest">Data1!$AJ$308</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$308</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$308</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -778,7 +778,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2022</t>
+    <t>© Commonwealth of Australia  2023</t>
   </si>
 </sst>
 </file>
@@ -1484,10 +1484,10 @@
         <v>26543</v>
       </c>
       <c r="G12" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H12" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>45</v>
@@ -1516,10 +1516,10 @@
         <v>26543</v>
       </c>
       <c r="G13" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H13" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>45</v>
@@ -1548,10 +1548,10 @@
         <v>26543</v>
       </c>
       <c r="G14" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H14" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>45</v>
@@ -1580,10 +1580,10 @@
         <v>26543</v>
       </c>
       <c r="G15" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H15" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>45</v>
@@ -1612,10 +1612,10 @@
         <v>26543</v>
       </c>
       <c r="G16" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H16" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>45</v>
@@ -1644,10 +1644,10 @@
         <v>32752</v>
       </c>
       <c r="G17" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H17" s="10">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>45</v>
@@ -1676,10 +1676,10 @@
         <v>26543</v>
       </c>
       <c r="G18" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H18" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>45</v>
@@ -1708,10 +1708,10 @@
         <v>26543</v>
       </c>
       <c r="G19" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H19" s="10">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>45</v>
@@ -1740,10 +1740,10 @@
         <v>32752</v>
       </c>
       <c r="G20" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H20" s="10">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>45</v>
@@ -1772,10 +1772,10 @@
         <v>30011</v>
       </c>
       <c r="G21" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H21" s="10">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>45</v>
@@ -1804,10 +1804,10 @@
         <v>38504</v>
       </c>
       <c r="G22" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H22" s="10">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>45</v>
@@ -1836,10 +1836,10 @@
         <v>17777</v>
       </c>
       <c r="G23" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H23" s="10">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>45</v>
@@ -1868,10 +1868,10 @@
         <v>26908</v>
       </c>
       <c r="G24" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H24" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>61</v>
@@ -1900,10 +1900,10 @@
         <v>26908</v>
       </c>
       <c r="G25" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H25" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>61</v>
@@ -1932,10 +1932,10 @@
         <v>26908</v>
       </c>
       <c r="G26" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H26" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>61</v>
@@ -1964,10 +1964,10 @@
         <v>26908</v>
       </c>
       <c r="G27" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H27" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>61</v>
@@ -1996,10 +1996,10 @@
         <v>26908</v>
       </c>
       <c r="G28" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H28" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>61</v>
@@ -2028,10 +2028,10 @@
         <v>33117</v>
       </c>
       <c r="G29" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H29" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>61</v>
@@ -2060,10 +2060,10 @@
         <v>26908</v>
       </c>
       <c r="G30" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H30" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>61</v>
@@ -2092,10 +2092,10 @@
         <v>26908</v>
       </c>
       <c r="G31" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H31" s="10">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>61</v>
@@ -2124,10 +2124,10 @@
         <v>33117</v>
       </c>
       <c r="G32" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H32" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>61</v>
@@ -2156,10 +2156,10 @@
         <v>30376</v>
       </c>
       <c r="G33" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H33" s="10">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>61</v>
@@ -2188,10 +2188,10 @@
         <v>38869</v>
       </c>
       <c r="G34" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H34" s="10">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>61</v>
@@ -2220,10 +2220,10 @@
         <v>18142</v>
       </c>
       <c r="G35" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H35" s="10">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>61</v>
@@ -2252,10 +2252,10 @@
         <v>26634</v>
       </c>
       <c r="G36" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H36" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>61</v>
@@ -2284,10 +2284,10 @@
         <v>26634</v>
       </c>
       <c r="G37" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H37" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>61</v>
@@ -2316,10 +2316,10 @@
         <v>26634</v>
       </c>
       <c r="G38" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H38" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>61</v>
@@ -2348,10 +2348,10 @@
         <v>26634</v>
       </c>
       <c r="G39" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H39" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>61</v>
@@ -2380,10 +2380,10 @@
         <v>26634</v>
       </c>
       <c r="G40" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H40" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>61</v>
@@ -2412,10 +2412,10 @@
         <v>32843</v>
       </c>
       <c r="G41" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H41" s="10">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>61</v>
@@ -2444,10 +2444,10 @@
         <v>26634</v>
       </c>
       <c r="G42" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H42" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>61</v>
@@ -2476,10 +2476,10 @@
         <v>26634</v>
       </c>
       <c r="G43" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H43" s="10">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>61</v>
@@ -2508,10 +2508,10 @@
         <v>32843</v>
       </c>
       <c r="G44" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H44" s="10">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>61</v>
@@ -2540,10 +2540,10 @@
         <v>30103</v>
       </c>
       <c r="G45" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H45" s="10">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>61</v>
@@ -2572,10 +2572,10 @@
         <v>38596</v>
       </c>
       <c r="G46" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H46" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>61</v>
@@ -2604,10 +2604,10 @@
         <v>17868</v>
       </c>
       <c r="G47" s="9">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H47" s="10">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>61</v>
@@ -2678,7 +2678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK306"/>
+  <dimension ref="A1:AK308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -3485,112 +3485,112 @@
         <v>42</v>
       </c>
       <c r="B8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="C8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="D8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="E8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="F8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="G8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="H8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="I8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="J8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="K8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="L8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="M8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="N8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="O8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="P8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="Q8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="R8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="S8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="T8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="U8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="V8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="W8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="X8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="Y8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="Z8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AA8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AB8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AC8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AD8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AE8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AF8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AG8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AH8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AI8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="AK8" s="6">
-        <v>44713</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -3598,112 +3598,112 @@
         <v>43</v>
       </c>
       <c r="B9" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D9" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E9" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F9" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G9" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H9" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I9" s="1">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J9" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K9" s="1">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L9" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M9" s="1">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N9" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O9" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P9" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R9" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="S9" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T9" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="U9" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="V9" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W9" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X9" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y9" s="1">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Z9" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AA9" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AB9" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AC9" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD9" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AE9" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF9" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG9" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AH9" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AI9" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AJ9" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AK9" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -24836,6 +24836,232 @@
       </c>
       <c r="AK306" s="8">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A307" s="9">
+        <v>44805</v>
+      </c>
+      <c r="B307" s="8">
+        <v>124.5</v>
+      </c>
+      <c r="C307" s="8">
+        <v>181.8</v>
+      </c>
+      <c r="D307" s="8">
+        <v>96.5</v>
+      </c>
+      <c r="E307" s="8">
+        <v>136.4</v>
+      </c>
+      <c r="F307" s="8">
+        <v>119.6</v>
+      </c>
+      <c r="G307" s="8">
+        <v>150.6</v>
+      </c>
+      <c r="H307" s="8">
+        <v>123.8</v>
+      </c>
+      <c r="I307" s="8">
+        <v>77.7</v>
+      </c>
+      <c r="J307" s="8">
+        <v>114.4</v>
+      </c>
+      <c r="K307" s="8">
+        <v>146</v>
+      </c>
+      <c r="L307" s="8">
+        <v>122.7</v>
+      </c>
+      <c r="M307" s="8">
+        <v>128.4</v>
+      </c>
+      <c r="N307" s="8">
+        <v>9</v>
+      </c>
+      <c r="O307" s="8">
+        <v>4</v>
+      </c>
+      <c r="P307" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="Q307" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="R307" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="S307" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="T307" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U307" s="8">
+        <v>2</v>
+      </c>
+      <c r="V307" s="8">
+        <v>5</v>
+      </c>
+      <c r="W307" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X307" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="Y307" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="Z307" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="AA307" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="AB307" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="AC307" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="AD307" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="AE307" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AF307" s="8">
+        <v>-0.4</v>
+      </c>
+      <c r="AG307" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="AH307" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="AI307" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ307" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="AK307" s="8">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A308" s="9">
+        <v>44896</v>
+      </c>
+      <c r="B308" s="8">
+        <v>125.6</v>
+      </c>
+      <c r="C308" s="8">
+        <v>184</v>
+      </c>
+      <c r="D308" s="8">
+        <v>99</v>
+      </c>
+      <c r="E308" s="8">
+        <v>139</v>
+      </c>
+      <c r="F308" s="8">
+        <v>121.7</v>
+      </c>
+      <c r="G308" s="8">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="H308" s="8">
+        <v>125.9</v>
+      </c>
+      <c r="I308" s="8">
+        <v>77.3</v>
+      </c>
+      <c r="J308" s="8">
+        <v>120.6</v>
+      </c>
+      <c r="K308" s="8">
+        <v>146.1</v>
+      </c>
+      <c r="L308" s="8">
+        <v>125.2</v>
+      </c>
+      <c r="M308" s="8">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="N308" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O308" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P308" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="Q308" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="R308" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="S308" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="T308" s="8">
+        <v>8</v>
+      </c>
+      <c r="U308" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="V308" s="8">
+        <v>9</v>
+      </c>
+      <c r="W308" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X308" s="8">
+        <v>5</v>
+      </c>
+      <c r="Y308" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="Z308" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="AA308" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="AB308" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="AC308" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="AD308" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AE308" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AF308" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="AG308" s="8">
+        <v>-0.5</v>
+      </c>
+      <c r="AH308" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="AI308" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AJ308" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK308" s="8">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
